--- a/measurement/results/steering.xlsx
+++ b/measurement/results/steering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knabistvangellert/Documents/SZTAKI/jarmuiranyitas_2/measurement/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE62F95E-256D-A146-A1C6-9AEDC717B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE97C03-B048-4B45-B34E-9E0F15F5101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16880" xr2:uid="{C88671D4-671B-3F45-AB92-E4525C2C3404}"/>
   </bookViews>
